--- a/LinkedListHashTablePerformanceData.xlsx
+++ b/LinkedListHashTablePerformanceData.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\228800\IdeaProjects\HashTables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Load Factor</t>
   </si>
@@ -30,12 +35,15 @@
   <si>
     <t>Average List Size</t>
   </si>
+  <si>
+    <t>Max List Size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,20 +571,67 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -591,6 +646,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>results4!$A$2:$A$11</c:f>
@@ -669,43 +748,185 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90D9-416C-9995-094E83782687}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="85477632"/>
-        <c:axId val="85474688"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="423761728"/>
+        <c:axId val="423763040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85477632"/>
+        <c:axId val="423761728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85474688"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423763040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85474688"/>
+        <c:axId val="423763040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85477632"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423761728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -715,16 +936,55 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -739,6 +999,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>results4!$A$19:$A$28</c:f>
@@ -817,43 +1101,185 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2591-4306-9F91-0EACDE85C862}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="79515008"/>
-        <c:axId val="45581824"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="429761136"/>
+        <c:axId val="429761792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79515008"/>
+        <c:axId val="429761136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45581824"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429761792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45581824"/>
+        <c:axId val="429761792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79515008"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429761136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -863,16 +1289,55 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -887,6 +1352,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>results4!$A$36:$A$45</c:f>
@@ -965,43 +1454,185 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-558B-4ADC-8343-031D1AE6D9B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="87654784"/>
-        <c:axId val="93354624"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="433204104"/>
+        <c:axId val="433205744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87654784"/>
+        <c:axId val="433204104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93354624"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433205744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93354624"/>
+        <c:axId val="433205744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87654784"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433204104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1011,16 +1642,55 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1035,6 +1705,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>results4!$A$53:$A$62</c:f>
@@ -1113,42 +1807,185 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13C8-4F77-B002-36A0417A07CC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="93352320"/>
-        <c:axId val="92395776"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="498442224"/>
+        <c:axId val="494561688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93352320"/>
+        <c:axId val="498442224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92395776"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494561688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92395776"/>
+        <c:axId val="494561688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93352320"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498442224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1157,24 +1994,3163 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results4!$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max List Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>results4!$A$70:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results4!$B$70:$B$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B968-4F7E-AF33-7B5400F83313}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="498417680"/>
+        <c:axId val="492597656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="498417680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492597656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="492597656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498417680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>309562</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28142FD1-93E1-4D8C-A627-74F5D4E374A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1192,19 +5168,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>42862</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>347662</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F605AEF-A521-414B-8285-54E7D65FEDBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1222,19 +5204,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>357187</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686AAEAB-5232-4E5D-A2EE-E3CC6380197D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1252,19 +5240,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>42862</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>347662</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DF3B55-8165-4B89-B0E9-793A7CC95403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1274,6 +5268,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0FBC80-B4D6-4D41-8556-9E7013113465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1325,7 +5355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1357,9 +5387,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1391,6 +5439,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1566,16 +5632,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -1591,7 +5657,7 @@
         <v>9.2399999999999996E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -1599,7 +5665,7 @@
         <v>1.6479999999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -1607,7 +5673,7 @@
         <v>1.6259999999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -1615,7 +5681,7 @@
         <v>1.032E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -1623,7 +5689,7 @@
         <v>2.8600000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -1631,7 +5697,7 @@
         <v>1.5239999999999999E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -1639,7 +5705,7 @@
         <v>1.93199999999999E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -1647,7 +5713,7 @@
         <v>2.7680000000000001E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -1655,7 +5721,7 @@
         <v>4.2299999999999901E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1663,7 +5729,7 @@
         <v>2.8999999999999903E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +5737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.1</v>
       </c>
@@ -1679,7 +5745,7 @@
         <v>3.4199999999999998E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.2</v>
       </c>
@@ -1687,7 +5753,7 @@
         <v>9.7200000000000004E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.3</v>
       </c>
@@ -1695,7 +5761,7 @@
         <v>6.9599999999999998E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.4</v>
       </c>
@@ -1703,7 +5769,7 @@
         <v>7.9200000000000001E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -1711,7 +5777,7 @@
         <v>1.26E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.6</v>
       </c>
@@ -1719,7 +5785,7 @@
         <v>1.21199999999999E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.7</v>
       </c>
@@ -1727,7 +5793,7 @@
         <v>1.47E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.8</v>
       </c>
@@ -1735,7 +5801,7 @@
         <v>2.0320000000000001E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.9</v>
       </c>
@@ -1743,7 +5809,7 @@
         <v>2.3579999999999901E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1751,7 +5817,7 @@
         <v>6.6399999999999901E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +5825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.1</v>
       </c>
@@ -1767,7 +5833,7 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.2</v>
       </c>
@@ -1775,7 +5841,7 @@
         <v>9.6399999999999999E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.3</v>
       </c>
@@ -1783,7 +5849,7 @@
         <v>5.7000000000000003E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.4</v>
       </c>
@@ -1791,7 +5857,7 @@
         <v>2.5280000000000002E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.5</v>
       </c>
@@ -1799,7 +5865,7 @@
         <v>9.1000000000000003E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.6</v>
       </c>
@@ -1807,7 +5873,7 @@
         <v>1.3559999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.7</v>
       </c>
@@ -1815,7 +5881,7 @@
         <v>1.8479999999999999E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.8</v>
       </c>
@@ -1823,7 +5889,7 @@
         <v>2.24E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.9</v>
       </c>
@@ -1831,7 +5897,7 @@
         <v>2.6819999999999898E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1839,7 +5905,7 @@
         <v>2.0799999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +5913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.1</v>
       </c>
@@ -1855,7 +5921,7 @@
         <v>1.04778090482167</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.2</v>
       </c>
@@ -1863,7 +5929,7 @@
         <v>1.1009408640624201</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.3</v>
       </c>
@@ -1871,7 +5937,7 @@
         <v>1.1545504296082101</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.4</v>
       </c>
@@ -1879,7 +5945,7 @@
         <v>1.2107798148475499</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.5</v>
       </c>
@@ -1887,7 +5953,7 @@
         <v>1.2684045500208001</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.6</v>
       </c>
@@ -1895,7 +5961,7 @@
         <v>1.32671743572054</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.7</v>
       </c>
@@ -1903,7 +5969,7 @@
         <v>1.38846078014834</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.8</v>
       </c>
@@ -1911,7 +5977,7 @@
         <v>1.4502043337906301</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.9</v>
       </c>
@@ -1919,12 +5985,100 @@
         <v>1.5142613130462601</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62">
         <v>1.5783077384428399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.1</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.2</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.3</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.4</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.5</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.6</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.7</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.8</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.9</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
